--- a/Documentation/UserAcceptanceTest.xlsx
+++ b/Documentation/UserAcceptanceTest.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fontys\S3_2022-2022\individualtrackproject-s3\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6F7D0FE-66E5-4534-8CB5-8E1BB6D15ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51BC85F-BF74-4E5B-8CB3-027C9195B297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D23F385-F16B-4CE4-AAB6-202B86DA5FCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>The user is logged in</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -335,32 +338,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,7 +682,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K12"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,160 +700,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
       <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -875,92 +882,98 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -987,16 +1000,51 @@
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="L13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
@@ -1006,47 +1054,14 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
